--- a/src/main/java/reports/c.xlsx
+++ b/src/main/java/reports/c.xlsx
@@ -12,35 +12,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Number</t>
   </si>
   <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
     <t>TC05</t>
   </si>
   <si>
     <t>TC06</t>
   </si>
   <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
     <t>A03</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
   </si>
   <si>
     <t>D09</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>f</t>
@@ -349,22 +340,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1" t="s" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I1" t="s" s="0">
         <v>0</v>
@@ -374,6 +365,9 @@
       <c r="A2" s="0">
         <f>COUNTA(B2:P2)</f>
       </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
@@ -385,42 +379,48 @@
       <c r="A3" s="0">
         <f>COUNTA(B3:P3)</f>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s" s="11">
         <v>6</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <f>COUNTA(B4:P4)</f>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
+      <c r="C4" t="s" s="12">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>3</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <f>COUNTA(B5:P5)</f>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>2</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -428,39 +428,36 @@
         <f>COUNTA(B6:P6)</f>
       </c>
       <c r="C6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <f>COUNTA(B7:P7)</f>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -470,13 +467,13 @@
     </row>
     <row r="9">
       <c r="D9" s="25" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
